--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209954</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.07848821</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>7.256111626157765</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G8" t="n">
-        <v>12.92549025883184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1382,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1458,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,31 +1767,31 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="17">
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.87161743162455</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2041,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2123,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
-        <v>71.27563719245525</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,73 +2320,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>69.53710670646987</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.21818295513395</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2634,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>48.84334282653597</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>104.954515658907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,43 +2724,43 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.168699673085007</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2925,16 +2927,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,19 +3119,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.98213474053748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>127.1051815266449</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3363,7 +3365,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>111.1939927714464</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3515,61 +3517,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>129.4096352378224</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3827,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>19.5347982370161</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>119.3132525143586</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.87477961344436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4019,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.86547882798917</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U5" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V5" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E6" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F6" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H7" t="n">
-        <v>90.46354404567346</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>50.47982994280417</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>10.49611583993489</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F8" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>120.7308247336138</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="S11" t="n">
-        <v>68.2764642733967</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="T11" t="n">
-        <v>68.2764642733967</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="U11" t="n">
-        <v>28.29275017052741</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="V11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C14" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D14" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C16" t="n">
-        <v>90.46354404567346</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D16" t="n">
-        <v>90.46354404567346</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E16" t="n">
-        <v>90.46354404567346</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F16" t="n">
-        <v>90.46354404567346</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G16" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>137.2644294849704</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>92.68647758675968</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>92.68647758675968</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>92.68647758675968</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>92.68647758675968</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>92.68647758675968</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>92.68647758675968</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>3.530573790338288</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22142444577459</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5841,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>718.6442178376129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5953,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>571.699036612819</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C24" t="n">
-        <v>397.246007331692</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D24" t="n">
-        <v>248.3115976704407</v>
+        <v>229.0056029040899</v>
       </c>
       <c r="E24" t="n">
-        <v>248.3115976704407</v>
+        <v>229.0056029040899</v>
       </c>
       <c r="F24" t="n">
-        <v>248.3115976704407</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>913.3317181822181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>739.914373632887</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>739.914373632887</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>739.914373632887</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>739.914373632887</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>739.914373632887</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>739.914373632887</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>739.914373632887</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.5185981156682</v>
+        <v>741.3031010355112</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>527.5764290961142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C29" t="n">
-        <v>284.1276524520142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D29" t="n">
-        <v>284.1276524520142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>527.5764290961142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>527.5764290961142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W29" t="n">
-        <v>527.5764290961142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X29" t="n">
-        <v>527.5764290961142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y29" t="n">
-        <v>527.5764290961142</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>112.5255106362308</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6637,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,13 +6721,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
@@ -6734,16 +6736,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.1213740781145</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>82.32787816303323</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>577.1531170985884</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C36" t="n">
-        <v>577.1531170985884</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7132,7 +7134,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>318.9674160535941</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>318.9674160535941</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.0368378505294</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5838085694024</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D42" t="n">
-        <v>38.64939890815108</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>139.7995799934033</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6232706630674</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>225.6232706630674</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>738.0124736355514</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>530.2521748705974</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>120.7308247336138</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>120.7308247336138</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>108.260178376266</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>108.260178376266</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>108.260178376266</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W44" t="n">
-        <v>68.2764642733967</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X44" t="n">
-        <v>68.2764642733967</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.29275017052741</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>269.2175241529953</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>399.6518023927121</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>347.3483102710314</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.2175241529953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>180.1185623197441</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22592,22 +22594,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22641,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22832,25 +22834,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>107.8611886027982</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4780383352215</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>15.01338019972509</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G8" t="n">
-        <v>402.3772472563032</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23118,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>132.9374890786825</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>302.8774788566905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23346,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23653,31 +23655,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="17">
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>368.0044283100869</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.6307980901329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23929,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296654</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
-        <v>134.4973480110222</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>75.53210568691401</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.93965119750918</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,7 +24457,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24522,22 +24524,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>151.3213858682856</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>100.7281801183974</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>360.7466147015374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,16 +24730,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>32.73830033054396</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>135.1748174901256</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,16 +24815,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,19 +25007,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>155.7005610367669</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>20.33988403799388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25251,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>88.97073592337523</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>363.0059062769168</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>76.27306053948195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25645,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>140.9617216776064</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25713,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>138.1102822183848</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.8590620500362</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25907,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.6677048218782</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.235636789</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752916</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490577</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26338,7 +26340,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26352,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490578</v>
+        <v>108004.4371453661</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.1863689511</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803476</v>
+        <v>8602.403897583863</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388641</v>
+        <v>23392.10990182809</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.4449238864</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.0449238864</v>
+        <v>57019.70990182806</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388635</v>
+        <v>57019.70990182809</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235329</v>
+        <v>14106.06526851277</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866007</v>
+        <v>68068.50016898508</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898511</v>
+        <v>68068.50016898508</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518128</v>
+        <v>56521.58205899422</v>
       </c>
       <c r="K6" t="n">
-        <v>68068.50016898512</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="L6" t="n">
         <v>68068.50016898511</v>
       </c>
       <c r="M6" t="n">
-        <v>68068.50016898509</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="N6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="O6" t="n">
-        <v>67813.25523849801</v>
+        <v>20688.6219515213</v>
       </c>
       <c r="P6" t="n">
-        <v>56738.04492388637</v>
+        <v>68068.50016898512</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37151,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9091475161414</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>163.8853874227249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>208.7939304911573</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>37.98452839772582</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>37.98452839772582</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
